--- a/Code/Results/Cases/Case_3_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92774526153209</v>
+        <v>17.54375623516665</v>
       </c>
       <c r="C2">
-        <v>11.64026767811123</v>
+        <v>8.291723072200645</v>
       </c>
       <c r="D2">
-        <v>5.492313211760916</v>
+        <v>8.862803453614745</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.91905118163375</v>
+        <v>33.39431947920421</v>
       </c>
       <c r="G2">
-        <v>2.085720508146662</v>
+        <v>3.656802260834634</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>14.72172797897101</v>
+        <v>24.42223332966396</v>
       </c>
       <c r="J2">
-        <v>5.738373065697005</v>
+        <v>10.07989191966975</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.030923801098265</v>
+        <v>12.02409148937367</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.22225759282394</v>
+        <v>17.9419361833965</v>
       </c>
       <c r="O2">
-        <v>16.6264123428287</v>
+        <v>25.26905837729013</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.52900054783146</v>
+        <v>17.10651787051563</v>
       </c>
       <c r="C3">
-        <v>11.0372311687757</v>
+        <v>8.014301920569171</v>
       </c>
       <c r="D3">
-        <v>5.402813878641174</v>
+        <v>8.863698768900733</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.5063586215365</v>
+        <v>33.44400992790391</v>
       </c>
       <c r="G3">
-        <v>2.091075775189092</v>
+        <v>3.658894374284435</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>14.82573665235368</v>
+        <v>24.52210522545123</v>
       </c>
       <c r="J3">
-        <v>5.795237979561449</v>
+        <v>10.10326352616297</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.813587056285545</v>
+        <v>12.00897689313164</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.35118125121569</v>
+        <v>17.98878498711294</v>
       </c>
       <c r="O3">
-        <v>16.43407990618329</v>
+        <v>25.32733137593706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.65832260710268</v>
+        <v>16.83453691543235</v>
       </c>
       <c r="C4">
-        <v>10.64935141906177</v>
+        <v>7.837640444863523</v>
       </c>
       <c r="D4">
-        <v>5.348992830725279</v>
+        <v>8.865240734378737</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.26991132528434</v>
+        <v>33.48257213437692</v>
       </c>
       <c r="G4">
-        <v>2.094470362518304</v>
+        <v>3.660248150310283</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.90271206906004</v>
+        <v>24.58830564304525</v>
       </c>
       <c r="J4">
-        <v>5.831544875183094</v>
+        <v>10.1184161802894</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.680168592290729</v>
+        <v>12.0012944285417</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.43384070895288</v>
+        <v>18.01933532078366</v>
       </c>
       <c r="O4">
-        <v>16.3301767600979</v>
+        <v>25.36888763290723</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.29221131595337</v>
+        <v>16.7229779492127</v>
       </c>
       <c r="C5">
-        <v>10.48694749189408</v>
+        <v>7.764129406292616</v>
       </c>
       <c r="D5">
-        <v>5.327365279607925</v>
+        <v>8.866119440578551</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.17782774684357</v>
+        <v>33.50030780296821</v>
       </c>
       <c r="G5">
-        <v>2.095881032921389</v>
+        <v>3.660817283143715</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.93722981790877</v>
+        <v>24.61650810233125</v>
       </c>
       <c r="J5">
-        <v>5.846691641719233</v>
+        <v>10.12479329311239</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.625878080635832</v>
+        <v>11.9985682054483</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.46839641328139</v>
+        <v>18.03223453731328</v>
       </c>
       <c r="O5">
-        <v>16.29133452977569</v>
+        <v>25.3872714275546</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.23073897351216</v>
+        <v>16.7044147155641</v>
       </c>
       <c r="C6">
-        <v>10.45972134264136</v>
+        <v>7.751833340146128</v>
       </c>
       <c r="D6">
-        <v>5.323793046702343</v>
+        <v>8.866280492487242</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.16279523812183</v>
+        <v>33.50337475975314</v>
       </c>
       <c r="G6">
-        <v>2.096116942109937</v>
+        <v>3.660912843254176</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.94314747158387</v>
+        <v>24.6212650569529</v>
       </c>
       <c r="J6">
-        <v>5.849228019715438</v>
+        <v>10.1258644404223</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.616870087961831</v>
+        <v>11.99814001814785</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.47418675320511</v>
+        <v>18.03440362918052</v>
       </c>
       <c r="O6">
-        <v>16.2850939285138</v>
+        <v>25.39041147507594</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65343074513645</v>
+        <v>16.83303510957246</v>
       </c>
       <c r="C7">
-        <v>10.64717862173575</v>
+        <v>7.836655105894542</v>
       </c>
       <c r="D7">
-        <v>5.348699892632617</v>
+        <v>8.865251570219449</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.26865216155848</v>
+        <v>33.48280314499744</v>
       </c>
       <c r="G7">
-        <v>2.094489275822351</v>
+        <v>3.660255755075267</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.90316502625818</v>
+        <v>24.58868103230427</v>
       </c>
       <c r="J7">
-        <v>5.831747724901311</v>
+        <v>10.1185013645398</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.679435996065719</v>
+        <v>12.00125602085402</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.43430322205023</v>
+        <v>18.01950746213387</v>
       </c>
       <c r="O7">
-        <v>16.32963885098745</v>
+        <v>25.36912969962978</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.45080956005815</v>
+        <v>17.3938190704251</v>
       </c>
       <c r="C8">
-        <v>11.43604354301702</v>
+        <v>8.197420566601179</v>
       </c>
       <c r="D8">
-        <v>5.461231203933936</v>
+        <v>8.862906736196305</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.77324709905877</v>
+        <v>33.40977964098771</v>
       </c>
       <c r="G8">
-        <v>2.08754527499852</v>
+        <v>3.657509290018005</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>14.75477786185819</v>
+        <v>24.45565567248037</v>
       </c>
       <c r="J8">
-        <v>5.757692136997352</v>
+        <v>10.08778422324424</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.956022440584714</v>
+        <v>12.01854995326313</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.26597845433036</v>
+        <v>17.95771969346982</v>
       </c>
       <c r="O8">
-        <v>16.55711270892693</v>
+        <v>25.28795015533492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.69514920049436</v>
+        <v>18.45904510052651</v>
       </c>
       <c r="C9">
-        <v>12.84031375136822</v>
+        <v>8.851988505167123</v>
       </c>
       <c r="D9">
-        <v>5.689986865837135</v>
+        <v>8.866143301718258</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.89620090657604</v>
+        <v>33.33059847659814</v>
       </c>
       <c r="G9">
-        <v>2.074744699297523</v>
+        <v>3.652670135678304</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>14.57471747047326</v>
+        <v>24.23357173496857</v>
       </c>
       <c r="J9">
-        <v>5.623445911762736</v>
+        <v>10.03389113311867</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.495666872078647</v>
+        <v>12.06501968091948</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.96411810831186</v>
+        <v>17.85067856394008</v>
       </c>
       <c r="O9">
-        <v>17.11835061833964</v>
+        <v>25.17472381366107</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.83393966471447</v>
+        <v>19.21247584623408</v>
       </c>
       <c r="C10">
-        <v>13.78227120165534</v>
+        <v>9.297495383818569</v>
       </c>
       <c r="D10">
-        <v>5.861793160184655</v>
+        <v>8.873244079532014</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.80056786535222</v>
+        <v>33.3115836277232</v>
       </c>
       <c r="G10">
-        <v>2.065796826366344</v>
+        <v>3.649444576822486</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.5198136946041</v>
+        <v>24.09414046586419</v>
       </c>
       <c r="J10">
-        <v>5.531420398168123</v>
+        <v>9.998129927601674</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.886848972301353</v>
+        <v>12.10664039028352</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.76027995911267</v>
+        <v>17.78059327482861</v>
       </c>
       <c r="O10">
-        <v>17.60375514986708</v>
+        <v>25.11972369710967</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.75477834225649</v>
+        <v>19.54735379748817</v>
       </c>
       <c r="C11">
-        <v>14.19099245961711</v>
+        <v>9.491936538897658</v>
       </c>
       <c r="D11">
-        <v>5.940522836697526</v>
+        <v>8.877487366762686</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.22865896534028</v>
+        <v>33.31144836977278</v>
       </c>
       <c r="G11">
-        <v>2.061815712303351</v>
+        <v>3.648048051079962</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.51382488257776</v>
+        <v>24.03588353984268</v>
       </c>
       <c r="J11">
-        <v>5.490973782580022</v>
+        <v>9.982686788022924</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.06299778729119</v>
+        <v>12.12715724480126</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.67164100263631</v>
+        <v>17.7505570065319</v>
       </c>
       <c r="O11">
-        <v>17.8408821088741</v>
+        <v>25.10085150861879</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.0960671825067</v>
+        <v>19.67291787956133</v>
       </c>
       <c r="C12">
-        <v>14.34290823642355</v>
+        <v>9.564345893284958</v>
       </c>
       <c r="D12">
-        <v>5.970399160654003</v>
+        <v>8.879238684286838</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.39311541583371</v>
+        <v>33.31262101928299</v>
       </c>
       <c r="G12">
-        <v>2.060320164824927</v>
+        <v>3.647529347429825</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.51447187710267</v>
+        <v>24.01456854631868</v>
       </c>
       <c r="J12">
-        <v>5.475860402498664</v>
+        <v>9.976956958864958</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.129394188879985</v>
+        <v>12.13515024495266</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.63868333798391</v>
+        <v>17.73944769910748</v>
       </c>
       <c r="O12">
-        <v>17.93304760619945</v>
+        <v>25.09459077424144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.02289290078477</v>
+        <v>19.64593261599057</v>
       </c>
       <c r="C13">
-        <v>14.31031768911437</v>
+        <v>9.54880612812255</v>
       </c>
       <c r="D13">
-        <v>5.963962250256868</v>
+        <v>8.878855100986437</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.35759317149924</v>
+        <v>33.31231405424857</v>
       </c>
       <c r="G13">
-        <v>2.060641737206946</v>
+        <v>3.647640609787384</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.51419993382221</v>
+        <v>24.0191259163212</v>
       </c>
       <c r="J13">
-        <v>5.479106326727356</v>
+        <v>9.978185732404437</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.115108908250875</v>
+        <v>12.1334189251214</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.64575397175258</v>
+        <v>17.74182852155959</v>
       </c>
       <c r="O13">
-        <v>17.91309233381417</v>
+        <v>25.0958997180338</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.78300447378658</v>
+        <v>19.55770965278964</v>
       </c>
       <c r="C14">
-        <v>14.20354798767107</v>
+        <v>9.497918382035483</v>
       </c>
       <c r="D14">
-        <v>5.942979622378667</v>
+        <v>8.877628560322202</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.2421421376383</v>
+        <v>33.31152032240269</v>
       </c>
       <c r="G14">
-        <v>2.061692436881269</v>
+        <v>3.64800517427771</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.51381862812834</v>
+        <v>24.03411498700578</v>
       </c>
       <c r="J14">
-        <v>5.489726333558869</v>
+        <v>9.982213026158938</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.06846667342249</v>
+        <v>12.12781037368728</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.66891724613536</v>
+        <v>17.74963773433591</v>
       </c>
       <c r="O14">
-        <v>17.84841698222357</v>
+        <v>25.1003186739388</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.63510295346577</v>
+        <v>19.50350486375791</v>
       </c>
       <c r="C15">
-        <v>14.13777600809148</v>
+        <v>9.466588048981494</v>
       </c>
       <c r="D15">
-        <v>5.930134817583589</v>
+        <v>8.876896046967687</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.17172926272398</v>
+        <v>33.31119349163978</v>
       </c>
       <c r="G15">
-        <v>2.062337559792862</v>
+        <v>3.648229798340964</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.5139701826769</v>
+        <v>24.0433933908448</v>
       </c>
       <c r="J15">
-        <v>5.496257794901849</v>
+        <v>9.984695233434426</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.039855605556953</v>
+        <v>12.12440398654311</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.68318524031385</v>
+        <v>17.75445556499873</v>
       </c>
       <c r="O15">
-        <v>17.80911084958485</v>
+        <v>25.10314080775953</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.77271894489764</v>
+        <v>19.19042241264254</v>
       </c>
       <c r="C16">
-        <v>13.75516088695938</v>
+        <v>9.284619301170908</v>
       </c>
       <c r="D16">
-        <v>5.856657854439861</v>
+        <v>8.872987055353709</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.77292243335576</v>
+        <v>33.31176377906004</v>
       </c>
       <c r="G16">
-        <v>2.066058729131502</v>
+        <v>3.649537263382934</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.52060285885083</v>
+        <v>24.09805192281066</v>
       </c>
       <c r="J16">
-        <v>5.534092107286214</v>
+        <v>9.999155731465327</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.875296715455239</v>
+        <v>12.10533109205658</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.76615664694902</v>
+        <v>17.78259330256312</v>
       </c>
       <c r="O16">
-        <v>17.58858884734345</v>
+        <v>25.12108090241121</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.23038443993708</v>
+        <v>18.99625698116226</v>
       </c>
       <c r="C17">
-        <v>13.51535990032627</v>
+        <v>9.170852144612457</v>
       </c>
       <c r="D17">
-        <v>5.811714968710981</v>
+        <v>8.870847658583044</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.53250436136905</v>
+        <v>33.31429434893165</v>
       </c>
       <c r="G17">
-        <v>2.068363848867989</v>
+        <v>3.650357447836098</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.52966525991364</v>
+        <v>24.13290904869643</v>
       </c>
       <c r="J17">
-        <v>5.557664355363888</v>
+        <v>10.0082377079067</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.773847454334318</v>
+        <v>12.09403326723209</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.81811747659908</v>
+        <v>17.80032719153402</v>
       </c>
       <c r="O17">
-        <v>17.45750331832724</v>
+        <v>25.13366248673137</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.91353837139701</v>
+        <v>18.88384453658146</v>
       </c>
       <c r="C18">
-        <v>13.37557110301141</v>
+        <v>9.104644368437414</v>
       </c>
       <c r="D18">
-        <v>5.785920149149908</v>
+        <v>8.869712568968554</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.39579633676459</v>
+        <v>33.31655139639001</v>
       </c>
       <c r="G18">
-        <v>2.069698152592068</v>
+        <v>3.650835862979868</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.53665364267379</v>
+        <v>24.15344454692062</v>
       </c>
       <c r="J18">
-        <v>5.571355829323806</v>
+        <v>10.01353908260974</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.71532943017092</v>
+        <v>12.08768434383165</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.84838740185602</v>
+        <v>17.81070103662781</v>
       </c>
       <c r="O18">
-        <v>17.38364083460657</v>
+        <v>25.14147764793415</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.80541410811487</v>
+        <v>18.84566132295525</v>
       </c>
       <c r="C19">
-        <v>13.32792186271744</v>
+        <v>9.08209624549171</v>
       </c>
       <c r="D19">
-        <v>5.777196548056408</v>
+        <v>8.869344673862093</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.34978132235474</v>
+        <v>33.31745325938106</v>
       </c>
       <c r="G19">
-        <v>2.070151402303289</v>
+        <v>3.650998992682438</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.53931922947995</v>
+        <v>24.16048102576017</v>
       </c>
       <c r="J19">
-        <v>5.576014455273443</v>
+        <v>10.01534738945761</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.695489101712212</v>
+        <v>12.08556046541774</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.85870156154493</v>
+        <v>17.81424330987586</v>
       </c>
       <c r="O19">
-        <v>17.3588949758273</v>
+        <v>25.144223037315</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28862442686202</v>
+        <v>19.0170030247689</v>
       </c>
       <c r="C20">
-        <v>13.54107992460769</v>
+        <v>9.183043041216495</v>
       </c>
       <c r="D20">
-        <v>5.816493653479843</v>
+        <v>8.871065532420722</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.5579347486919</v>
+        <v>33.31394201108129</v>
       </c>
       <c r="G20">
-        <v>2.06811759521805</v>
+        <v>3.650269448183695</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.52851542184979</v>
+        <v>24.12914807189359</v>
       </c>
       <c r="J20">
-        <v>5.555141255349398</v>
+        <v>10.00726288158563</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.784664563169548</v>
+        <v>12.09522051753156</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.81254633643255</v>
+        <v>17.79842140791508</v>
       </c>
       <c r="O20">
-        <v>17.47129859341188</v>
+        <v>25.13226326228289</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.85366604658127</v>
+        <v>19.5836575966775</v>
       </c>
       <c r="C21">
-        <v>14.23498646773559</v>
+        <v>9.512898777918858</v>
       </c>
       <c r="D21">
-        <v>5.94914116536553</v>
+        <v>8.877984913928042</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.27598959593005</v>
+        <v>33.31172025387738</v>
       </c>
       <c r="G21">
-        <v>2.061383501746135</v>
+        <v>3.647897818313274</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.51385003664136</v>
+        <v>24.0296920807922</v>
       </c>
       <c r="J21">
-        <v>5.486601479397259</v>
+        <v>9.981026909327065</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.082175323792809</v>
+        <v>12.12945170238259</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.66209695693824</v>
+        <v>17.74733679847161</v>
       </c>
       <c r="O21">
-        <v>17.86734918642939</v>
+        <v>25.0989966685881</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.83334319445963</v>
+        <v>19.94668387212475</v>
       </c>
       <c r="C22">
-        <v>14.67183543842565</v>
+        <v>9.721345292172675</v>
       </c>
       <c r="D22">
-        <v>6.036193658651483</v>
+        <v>8.883348645473097</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.75894191920304</v>
+        <v>33.31740097645184</v>
       </c>
       <c r="G22">
-        <v>2.057051983956206</v>
+        <v>3.646406845455346</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.5213423544659</v>
+        <v>23.96903895657571</v>
       </c>
       <c r="J22">
-        <v>5.442989068801225</v>
+        <v>9.964568661628812</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.274806344747715</v>
+        <v>12.15312574444198</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.56732466432484</v>
+        <v>17.71549307572117</v>
       </c>
       <c r="O22">
-        <v>18.14001795527057</v>
+        <v>25.08241839155402</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.31439366244532</v>
+        <v>19.75363522471872</v>
       </c>
       <c r="C23">
-        <v>14.44020737394914</v>
+        <v>9.61075776649311</v>
       </c>
       <c r="D23">
-        <v>5.989705305614183</v>
+        <v>8.880409337598456</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.49994762549312</v>
+        <v>33.31371682445008</v>
       </c>
       <c r="G23">
-        <v>2.059357716656997</v>
+        <v>3.647197221479295</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.51571946685232</v>
+        <v>24.00101223078909</v>
       </c>
       <c r="J23">
-        <v>5.466157859120023</v>
+        <v>9.973289891276876</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.172175479953793</v>
+        <v>12.14037269607731</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.61757378218961</v>
+        <v>17.7323476959089</v>
       </c>
       <c r="O23">
-        <v>17.99321722742391</v>
+        <v>25.09079361547469</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.26230986673234</v>
+        <v>19.0076261719345</v>
       </c>
       <c r="C24">
-        <v>13.52945789335988</v>
+        <v>9.177534030462875</v>
       </c>
       <c r="D24">
-        <v>5.814333073286241</v>
+        <v>8.870966736045274</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.54643295848268</v>
+        <v>33.31409880421139</v>
       </c>
       <c r="G24">
-        <v>2.068228898212461</v>
+        <v>3.650309211391142</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.52902973861928</v>
+        <v>24.13084686564947</v>
       </c>
       <c r="J24">
-        <v>5.556281514372319</v>
+        <v>10.00770335125834</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.779774747222193</v>
+        <v>12.09468330552195</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.81506381397424</v>
+        <v>17.79928245693549</v>
       </c>
       <c r="O24">
-        <v>17.46505707825257</v>
+        <v>25.13289403937316</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.86079566162353</v>
+        <v>18.17544452833878</v>
       </c>
       <c r="C25">
-        <v>12.47603911222441</v>
+        <v>8.680924003903844</v>
       </c>
       <c r="D25">
-        <v>5.627361122777915</v>
+        <v>8.864434223788034</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.57830226365538</v>
+        <v>33.34514866255619</v>
       </c>
       <c r="G25">
-        <v>2.078124278785044</v>
+        <v>3.653921093987195</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>14.61056344229696</v>
+        <v>24.289490232622</v>
       </c>
       <c r="J25">
-        <v>5.658597308627118</v>
+        <v>10.04779498543006</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.350365595769613</v>
+        <v>12.05112139130335</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.04268888103351</v>
+        <v>17.87812944122966</v>
       </c>
       <c r="O25">
-        <v>16.95386177432658</v>
+        <v>25.20041509186001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.54375623516665</v>
+        <v>20.92774526153202</v>
       </c>
       <c r="C2">
-        <v>8.291723072200645</v>
+        <v>11.6402676781112</v>
       </c>
       <c r="D2">
-        <v>8.862803453614745</v>
+        <v>5.492313211760995</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.39431947920421</v>
+        <v>22.91905118163391</v>
       </c>
       <c r="G2">
-        <v>3.656802260834634</v>
+        <v>2.085720508146661</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.42223332966396</v>
+        <v>14.72172797897115</v>
       </c>
       <c r="J2">
-        <v>10.07989191966975</v>
+        <v>5.738373065696939</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.02409148937367</v>
+        <v>8.030923801098231</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.9419361833965</v>
+        <v>12.22225759282398</v>
       </c>
       <c r="O2">
-        <v>25.26905837729013</v>
+        <v>16.62641234282883</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.10651787051563</v>
+        <v>19.5290005478315</v>
       </c>
       <c r="C3">
-        <v>8.014301920569171</v>
+        <v>11.03723116877559</v>
       </c>
       <c r="D3">
-        <v>8.863698768900733</v>
+        <v>5.402813878641174</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.44400992790391</v>
+        <v>22.50635862153658</v>
       </c>
       <c r="G3">
-        <v>3.658894374284435</v>
+        <v>2.091075775189094</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.52210522545123</v>
+        <v>14.82573665235374</v>
       </c>
       <c r="J3">
-        <v>10.10326352616297</v>
+        <v>5.795237979561383</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.00897689313164</v>
+        <v>7.813587056285505</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.98878498711294</v>
+        <v>12.35118125121569</v>
       </c>
       <c r="O3">
-        <v>25.32733137593706</v>
+        <v>16.43407990618337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.83453691543235</v>
+        <v>18.65832260710267</v>
       </c>
       <c r="C4">
-        <v>7.837640444863523</v>
+        <v>10.6493514190615</v>
       </c>
       <c r="D4">
-        <v>8.865240734378737</v>
+        <v>5.348992830725387</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.48257213437692</v>
+        <v>22.26991132528437</v>
       </c>
       <c r="G4">
-        <v>3.660248150310283</v>
+        <v>2.094470362518171</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.58830564304525</v>
+        <v>14.90271206905994</v>
       </c>
       <c r="J4">
-        <v>10.1184161802894</v>
+        <v>5.831544875183063</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.0012944285417</v>
+        <v>7.680168592290816</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.01933532078366</v>
+        <v>12.43384070895288</v>
       </c>
       <c r="O4">
-        <v>25.36888763290723</v>
+        <v>16.3301767600979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.7229779492127</v>
+        <v>18.29221131595338</v>
       </c>
       <c r="C5">
-        <v>7.764129406292616</v>
+        <v>10.48694749189424</v>
       </c>
       <c r="D5">
-        <v>8.866119440578551</v>
+        <v>5.327365279607871</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.50030780296821</v>
+        <v>22.17782774684361</v>
       </c>
       <c r="G5">
-        <v>3.660817283143715</v>
+        <v>2.095881032921254</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.61650810233125</v>
+        <v>14.93722981790883</v>
       </c>
       <c r="J5">
-        <v>10.12479329311239</v>
+        <v>5.846691641719269</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.9985682054483</v>
+        <v>7.625878080635797</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.03223453731328</v>
+        <v>12.46839641328145</v>
       </c>
       <c r="O5">
-        <v>25.3872714275546</v>
+        <v>16.29133452977574</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.7044147155641</v>
+        <v>18.23073897351218</v>
       </c>
       <c r="C6">
-        <v>7.751833340146128</v>
+        <v>10.45972134264127</v>
       </c>
       <c r="D6">
-        <v>8.866280492487242</v>
+        <v>5.323793046702208</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.50337475975314</v>
+        <v>22.16279523812169</v>
       </c>
       <c r="G6">
-        <v>3.660912843254176</v>
+        <v>2.096116942109671</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.6212650569529</v>
+        <v>14.94314747158377</v>
       </c>
       <c r="J6">
-        <v>10.1258644404223</v>
+        <v>5.849228019715404</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.99814001814785</v>
+        <v>7.616870087961784</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.03440362918052</v>
+        <v>12.47418675320504</v>
       </c>
       <c r="O6">
-        <v>25.39041147507594</v>
+        <v>16.28509392851372</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.83303510957246</v>
+        <v>18.65343074513646</v>
       </c>
       <c r="C7">
-        <v>7.836655105894542</v>
+        <v>10.64717862173566</v>
       </c>
       <c r="D7">
-        <v>8.865251570219449</v>
+        <v>5.348699892632617</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.48280314499744</v>
+        <v>22.26865216155846</v>
       </c>
       <c r="G7">
-        <v>3.660255755075267</v>
+        <v>2.094489275822352</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.58868103230427</v>
+        <v>14.90316502625816</v>
       </c>
       <c r="J7">
-        <v>10.1185013645398</v>
+        <v>5.831747724901312</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.00125602085402</v>
+        <v>7.679435996065719</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.01950746213387</v>
+        <v>12.43430322205026</v>
       </c>
       <c r="O7">
-        <v>25.36912969962978</v>
+        <v>16.32963885098742</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.3938190704251</v>
+        <v>20.45080956005817</v>
       </c>
       <c r="C8">
-        <v>8.197420566601179</v>
+        <v>11.43604354301687</v>
       </c>
       <c r="D8">
-        <v>8.862906736196305</v>
+        <v>5.461231203933849</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.40977964098771</v>
+        <v>22.77324709905874</v>
       </c>
       <c r="G8">
-        <v>3.657509290018005</v>
+        <v>2.087545274998388</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.45565567248037</v>
+        <v>14.75477786185812</v>
       </c>
       <c r="J8">
-        <v>10.08778422324424</v>
+        <v>5.757692136997221</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.01854995326313</v>
+        <v>7.956022440584642</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.95771969346982</v>
+        <v>12.26597845433032</v>
       </c>
       <c r="O8">
-        <v>25.28795015533492</v>
+        <v>16.55711270892693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.45904510052651</v>
+        <v>23.6951492004944</v>
       </c>
       <c r="C9">
-        <v>8.851988505167123</v>
+        <v>12.84031375136806</v>
       </c>
       <c r="D9">
-        <v>8.866143301718258</v>
+        <v>5.689986865836998</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>33.33059847659814</v>
+        <v>23.89620090657604</v>
       </c>
       <c r="G9">
-        <v>3.652670135678304</v>
+        <v>2.074744699297523</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.23357173496857</v>
+        <v>14.57471747047325</v>
       </c>
       <c r="J9">
-        <v>10.03389113311867</v>
+        <v>5.623445911762802</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.06501968091948</v>
+        <v>8.495666872078674</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.85067856394008</v>
+        <v>11.96411810831186</v>
       </c>
       <c r="O9">
-        <v>25.17472381366107</v>
+        <v>17.11835061833969</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.21247584623408</v>
+        <v>25.83393966471449</v>
       </c>
       <c r="C10">
-        <v>9.297495383818569</v>
+        <v>13.78227120165527</v>
       </c>
       <c r="D10">
-        <v>8.873244079532014</v>
+        <v>5.861793160184656</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.3115836277232</v>
+        <v>24.8005678653522</v>
       </c>
       <c r="G10">
-        <v>3.649444576822486</v>
+        <v>2.065796826366344</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.09414046586419</v>
+        <v>14.51981369460407</v>
       </c>
       <c r="J10">
-        <v>9.998129927601674</v>
+        <v>5.531420398168123</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.10664039028352</v>
+        <v>8.886848972301403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.78059327482861</v>
+        <v>11.76027995911264</v>
       </c>
       <c r="O10">
-        <v>25.11972369710967</v>
+        <v>17.60375514986707</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.54735379748817</v>
+        <v>26.75477834225653</v>
       </c>
       <c r="C11">
-        <v>9.491936538897658</v>
+        <v>14.19099245961699</v>
       </c>
       <c r="D11">
-        <v>8.877487366762686</v>
+        <v>5.940522836697459</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.31144836977278</v>
+        <v>25.22865896534031</v>
       </c>
       <c r="G11">
-        <v>3.648048051079962</v>
+        <v>2.061815712303216</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.03588353984268</v>
+        <v>14.51382488257775</v>
       </c>
       <c r="J11">
-        <v>9.982686788022924</v>
+        <v>5.49097378258009</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.12715724480126</v>
+        <v>9.062997787291218</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.7505570065319</v>
+        <v>11.6716410026363</v>
       </c>
       <c r="O11">
-        <v>25.10085150861879</v>
+        <v>17.84088210887415</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.67291787956133</v>
+        <v>27.09606718250671</v>
       </c>
       <c r="C12">
-        <v>9.564345893284958</v>
+        <v>14.34290823642352</v>
       </c>
       <c r="D12">
-        <v>8.879238684286838</v>
+        <v>5.970399160654003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>33.31262101928299</v>
+        <v>25.3931154158337</v>
       </c>
       <c r="G12">
-        <v>3.647529347429825</v>
+        <v>2.060320164824929</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.01456854631868</v>
+        <v>14.51447187710265</v>
       </c>
       <c r="J12">
-        <v>9.976956958864958</v>
+        <v>5.475860402498664</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.13515024495266</v>
+        <v>9.129394188879973</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.73944769910748</v>
+        <v>11.63868333798387</v>
       </c>
       <c r="O12">
-        <v>25.09459077424144</v>
+        <v>17.93304760619943</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.64593261599057</v>
+        <v>27.02289290078478</v>
       </c>
       <c r="C13">
-        <v>9.54880612812255</v>
+        <v>14.3103176891144</v>
       </c>
       <c r="D13">
-        <v>8.878855100986437</v>
+        <v>5.963962250256973</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>33.31231405424857</v>
+        <v>25.35759317149919</v>
       </c>
       <c r="G13">
-        <v>3.647640609787384</v>
+        <v>2.060641737207079</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.0191259163212</v>
+        <v>14.51419993382214</v>
       </c>
       <c r="J13">
-        <v>9.978185732404437</v>
+        <v>5.47910632672736</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.1334189251214</v>
+        <v>9.115108908250887</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.74182852155959</v>
+        <v>11.64575397175244</v>
       </c>
       <c r="O13">
-        <v>25.0958997180338</v>
+        <v>17.9130923338141</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.55770965278964</v>
+        <v>26.78300447378657</v>
       </c>
       <c r="C14">
-        <v>9.497918382035483</v>
+        <v>14.20354798767096</v>
       </c>
       <c r="D14">
-        <v>8.877628560322202</v>
+        <v>5.942979622378656</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>33.31152032240269</v>
+        <v>25.2421421376384</v>
       </c>
       <c r="G14">
-        <v>3.64800517427771</v>
+        <v>2.061692436881269</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.03411498700578</v>
+        <v>14.51381862812841</v>
       </c>
       <c r="J14">
-        <v>9.982213026158938</v>
+        <v>5.489726333558869</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.12781037368728</v>
+        <v>9.068466673422499</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.74963773433591</v>
+        <v>11.66891724613539</v>
       </c>
       <c r="O14">
-        <v>25.1003186739388</v>
+        <v>17.84841698222365</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.50350486375791</v>
+        <v>26.63510295346584</v>
       </c>
       <c r="C15">
-        <v>9.466588048981494</v>
+        <v>14.13777600809154</v>
       </c>
       <c r="D15">
-        <v>8.876896046967687</v>
+        <v>5.930134817583616</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.31119349163978</v>
+        <v>25.17172926272388</v>
       </c>
       <c r="G15">
-        <v>3.648229798340964</v>
+        <v>2.062337559792861</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.0433933908448</v>
+        <v>14.51397018267679</v>
       </c>
       <c r="J15">
-        <v>9.984695233434426</v>
+        <v>5.496257794901884</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.12440398654311</v>
+        <v>9.039855605556928</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.75445556499873</v>
+        <v>11.68318524031381</v>
       </c>
       <c r="O15">
-        <v>25.10314080775953</v>
+        <v>17.80911084958475</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.19042241264254</v>
+        <v>25.77271894489765</v>
       </c>
       <c r="C16">
-        <v>9.284619301170908</v>
+        <v>13.75516088695935</v>
       </c>
       <c r="D16">
-        <v>8.872987055353709</v>
+        <v>5.856657854439875</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.31176377906004</v>
+        <v>24.77292243335576</v>
       </c>
       <c r="G16">
-        <v>3.649537263382934</v>
+        <v>2.066058729131502</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.09805192281066</v>
+        <v>14.52060285885083</v>
       </c>
       <c r="J16">
-        <v>9.999155731465327</v>
+        <v>5.534092107286214</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.10533109205658</v>
+        <v>8.875296715455235</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.78259330256312</v>
+        <v>11.76615664694902</v>
       </c>
       <c r="O16">
-        <v>25.12108090241121</v>
+        <v>17.58858884734344</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.99625698116226</v>
+        <v>25.23038443993717</v>
       </c>
       <c r="C17">
-        <v>9.170852144612457</v>
+        <v>13.51535990032632</v>
       </c>
       <c r="D17">
-        <v>8.870847658583044</v>
+        <v>5.811714968711034</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>33.31429434893165</v>
+        <v>24.53250436136888</v>
       </c>
       <c r="G17">
-        <v>3.650357447836098</v>
+        <v>2.068363848867721</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.13290904869643</v>
+        <v>14.5296652599134</v>
       </c>
       <c r="J17">
-        <v>10.0082377079067</v>
+        <v>5.557664355363888</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.09403326723209</v>
+        <v>8.773847454334316</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.80032719153402</v>
+        <v>11.81811747659895</v>
       </c>
       <c r="O17">
-        <v>25.13366248673137</v>
+        <v>17.45750331832704</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.88384453658146</v>
+        <v>24.91353837139702</v>
       </c>
       <c r="C18">
-        <v>9.104644368437414</v>
+        <v>13.37557110301147</v>
       </c>
       <c r="D18">
-        <v>8.869712568968554</v>
+        <v>5.785920149149908</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>33.31655139639001</v>
+        <v>24.39579633676451</v>
       </c>
       <c r="G18">
-        <v>3.650835862979868</v>
+        <v>2.069698152591936</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.15344454692062</v>
+        <v>14.53665364267372</v>
       </c>
       <c r="J18">
-        <v>10.01353908260974</v>
+        <v>5.571355829323805</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.08768434383165</v>
+        <v>8.715329430170895</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.81070103662781</v>
+        <v>11.84838740185599</v>
       </c>
       <c r="O18">
-        <v>25.14147764793415</v>
+        <v>17.38364083460649</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.84566132295525</v>
+        <v>24.80541410811492</v>
       </c>
       <c r="C19">
-        <v>9.08209624549171</v>
+        <v>13.32792186271715</v>
       </c>
       <c r="D19">
-        <v>8.869344673862093</v>
+        <v>5.77719654805638</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.31745325938106</v>
+        <v>24.34978132235472</v>
       </c>
       <c r="G19">
-        <v>3.650998992682438</v>
+        <v>2.070151402303292</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.16048102576017</v>
+        <v>14.53931922947983</v>
       </c>
       <c r="J19">
-        <v>10.01534738945761</v>
+        <v>5.576014455273437</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.08556046541774</v>
+        <v>8.695489101712297</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.81424330987586</v>
+        <v>11.8587015615449</v>
       </c>
       <c r="O19">
-        <v>25.144223037315</v>
+        <v>17.35889497582727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.0170030247689</v>
+        <v>25.28862442686197</v>
       </c>
       <c r="C20">
-        <v>9.183043041216495</v>
+        <v>13.54107992460778</v>
       </c>
       <c r="D20">
-        <v>8.871065532420722</v>
+        <v>5.816493653479675</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>33.31394201108129</v>
+        <v>24.5579347486918</v>
       </c>
       <c r="G20">
-        <v>3.650269448183695</v>
+        <v>2.06811759521805</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.12914807189359</v>
+        <v>14.52851542184984</v>
       </c>
       <c r="J20">
-        <v>10.00726288158563</v>
+        <v>5.555141255349495</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.09522051753156</v>
+        <v>8.784664563169517</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79842140791508</v>
+        <v>11.81254633643252</v>
       </c>
       <c r="O20">
-        <v>25.13226326228289</v>
+        <v>17.47129859341187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.5836575966775</v>
+        <v>26.85366604658125</v>
       </c>
       <c r="C21">
-        <v>9.512898777918858</v>
+        <v>14.23498646773554</v>
       </c>
       <c r="D21">
-        <v>8.877984913928042</v>
+        <v>5.94914116536543</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>33.31172025387738</v>
+        <v>25.27598959593007</v>
       </c>
       <c r="G21">
-        <v>3.647897818313274</v>
+        <v>2.061383501746134</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.0296920807922</v>
+        <v>14.51385003664145</v>
       </c>
       <c r="J21">
-        <v>9.981026909327065</v>
+        <v>5.486601479397389</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.12945170238259</v>
+        <v>9.082175323792825</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.74733679847161</v>
+        <v>11.6620969569383</v>
       </c>
       <c r="O21">
-        <v>25.0989966685881</v>
+        <v>17.86734918642943</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.94668387212475</v>
+        <v>27.83334319445961</v>
       </c>
       <c r="C22">
-        <v>9.721345292172675</v>
+        <v>14.67183543842557</v>
       </c>
       <c r="D22">
-        <v>8.883348645473097</v>
+        <v>6.036193658651311</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.31740097645184</v>
+        <v>25.75894191920304</v>
       </c>
       <c r="G22">
-        <v>3.646406845455346</v>
+        <v>2.057051983956208</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.96903895657571</v>
+        <v>14.52134235446598</v>
       </c>
       <c r="J22">
-        <v>9.964568661628812</v>
+        <v>5.442989068801194</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.15312574444198</v>
+        <v>9.274806344747644</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.71549307572117</v>
+        <v>11.56732466432487</v>
       </c>
       <c r="O22">
-        <v>25.08241839155402</v>
+        <v>18.14001795527061</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.75363522471872</v>
+        <v>27.31439366244537</v>
       </c>
       <c r="C23">
-        <v>9.61075776649311</v>
+        <v>14.44020737394917</v>
       </c>
       <c r="D23">
-        <v>8.880409337598456</v>
+        <v>5.989705305614073</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>33.31371682445008</v>
+        <v>25.49994762549303</v>
       </c>
       <c r="G23">
-        <v>3.647197221479295</v>
+        <v>2.059357716656863</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.00101223078909</v>
+        <v>14.51571946685226</v>
       </c>
       <c r="J23">
-        <v>9.973289891276876</v>
+        <v>5.466157859120053</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.14037269607731</v>
+        <v>9.172175479953722</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.7323476959089</v>
+        <v>11.61757378218957</v>
       </c>
       <c r="O23">
-        <v>25.09079361547469</v>
+        <v>17.99321722742385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.0076261719345</v>
+        <v>25.2623098667324</v>
       </c>
       <c r="C24">
-        <v>9.177534030462875</v>
+        <v>13.52945789335985</v>
       </c>
       <c r="D24">
-        <v>8.870966736045274</v>
+        <v>5.814333073286104</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>33.31409880421139</v>
+        <v>24.54643295848261</v>
       </c>
       <c r="G24">
-        <v>3.650309211391142</v>
+        <v>2.068228898212193</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.13084686564947</v>
+        <v>14.52902973861924</v>
       </c>
       <c r="J24">
-        <v>10.00770335125834</v>
+        <v>5.556281514372387</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.09468330552195</v>
+        <v>8.779774747222167</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79928245693549</v>
+        <v>11.81506381397424</v>
       </c>
       <c r="O24">
-        <v>25.13289403937316</v>
+        <v>17.46505707825257</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.17544452833878</v>
+        <v>22.86079566162358</v>
       </c>
       <c r="C25">
-        <v>8.680924003903844</v>
+        <v>12.4760391122243</v>
       </c>
       <c r="D25">
-        <v>8.864434223788034</v>
+        <v>5.627361122777947</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.34514866255619</v>
+        <v>23.57830226365542</v>
       </c>
       <c r="G25">
-        <v>3.653921093987195</v>
+        <v>2.078124278785177</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.289490232622</v>
+        <v>14.610563442297</v>
       </c>
       <c r="J25">
-        <v>10.04779498543006</v>
+        <v>5.658597308627086</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.05112139130335</v>
+        <v>8.350365595769608</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.87812944122966</v>
+        <v>12.04268888103355</v>
       </c>
       <c r="O25">
-        <v>25.20041509186001</v>
+        <v>16.95386177432662</v>
       </c>
     </row>
   </sheetData>
